--- a/results/FrequencyTables/26990633_Gag-C.xlsx
+++ b/results/FrequencyTables/26990633_Gag-C.xlsx
@@ -465,25 +465,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>0.00147710487444609</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.99753815854259</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.996553421959626</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00147710487444609</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -492,46 +492,46 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.82</v>
+        <v>0.789758739537174</v>
       </c>
       <c r="L2">
-        <v>0.26</v>
+        <v>0.178237321516494</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.998030526834072</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0334810438207779</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.978335795174791</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.946824224519941</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00147710487444609</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0147710487444609</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00295420974889217</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00787789266371246</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -542,43 +542,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.99753815854259</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00246184145741014</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.000984736582964057</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01</v>
+        <v>0.00886262924667651</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -587,22 +587,22 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0507139340226489</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.94</v>
+        <v>0.953717380600689</v>
       </c>
       <c r="U3">
-        <v>0.02</v>
+        <v>0.000984736582964057</v>
       </c>
       <c r="V3">
-        <v>0.01</v>
+        <v>0.0206794682422452</v>
       </c>
       <c r="W3">
-        <v>0.02</v>
+        <v>0.0733628754308223</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -613,25 +613,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.99</v>
+        <v>0.998030526834072</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00196947316592811</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00196947316592811</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.998030526834072</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000984736582964057</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.999015263417036</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.18</v>
+        <v>0.168882323978336</v>
       </c>
       <c r="L4">
-        <v>0.74</v>
+        <v>0.821270310192024</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00196947316592811</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -658,28 +658,28 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0108321024126046</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000984736582964057</v>
       </c>
       <c r="S4">
-        <v>0.97</v>
+        <v>0.996553421959626</v>
       </c>
       <c r="T4">
-        <v>0.02</v>
+        <v>0.000984736582964057</v>
       </c>
       <c r="U4">
-        <v>0.97</v>
+        <v>0.99507631708518</v>
       </c>
       <c r="V4">
-        <v>0.98</v>
+        <v>0.978335795174791</v>
       </c>
       <c r="W4">
-        <v>0.78</v>
+        <v>0.891678975873954</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.999015263417036</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -696,64 +696,64 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000984736582964057</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000984736582964057</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.99753815854259</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0408665681930084</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.999015263417036</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.99</v>
+        <v>0.957656326932546</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.0108321024126046</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00147710487444609</v>
       </c>
       <c r="S5">
-        <v>0.03</v>
+        <v>0.00196947316592811</v>
       </c>
       <c r="T5">
-        <v>0.04</v>
+        <v>0.0305268340718858</v>
       </c>
       <c r="U5">
-        <v>0.01</v>
+        <v>0.000984736582964057</v>
       </c>
       <c r="V5">
-        <v>0.01</v>
+        <v>0.000984736582964057</v>
       </c>
       <c r="W5">
-        <v>0.2</v>
+        <v>0.0270802560315116</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000492368291482029</v>
       </c>
     </row>
   </sheetData>
